--- a/ig/core/StructureDefinition-medcom-core-patient.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="601">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T14:13:17+02:00</t>
+    <t>2025-09-24T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}marital-status-unknown-usage:Status in maritalStatus is unknown in a danish context. Consider mapping the value to UNK. See https://cpr.dk/borgere/hvad-staar-der-om-mig-i-cpr-registerindsigt/hvad-og-hvem-er-registreret-i-cpr-og-hvem-opdaterer-oplysninger-om-dig-i-cpr/ {maritalStatus.coding.where(code = 'P' and system = 'http://terminology.hl7.org/CodeSystem/v3-MaritalStatus').empty() or maritalStatus.coding.where(code = 'A' and system = 'http://terminology.hl7.org/CodeSystem/v3-MaritalStatus').empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}marital-status-unknown-usage:The constraint ensures that only permitted forms of marriage can be used in the Danish context, as there will be no authority for other forms. See https://cpr.dk/borgere/hvad-staar-der-om-mig-i-cpr-registerindsigt/hvad-og-hvem-er-registreret-i-cpr-og-hvem-opdaterer-oplysninger-om-dig-i-cpr/ {maritalStatus.coding.where(code = 'P' and system = 'http://terminology.hl7.org/CodeSystem/v3-MaritalStatus').empty() or maritalStatus.coding.where(code = 'A' and system = 'http://terminology.hl7.org/CodeSystem/v3-MaritalStatus').empty()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -385,7 +385,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -398,6 +398,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Patient.contained</t>
@@ -423,34 +526,13 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Patient.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -489,9 +571,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -517,19 +596,6 @@
     <t>Unique identification number for all citizens in Denmark, called civil person register (CPR-number).</t>
   </si>
   <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>Patient.identifier:x-ecpr</t>
   </si>
   <si>
@@ -540,7 +606,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
+    <t>[DA] X-eCPR, tildelt fra den nationale eCPR service</t>
   </si>
   <si>
     <t>Patient.identifier:d-ecpr</t>
@@ -551,6 +617,9 @@
   <si>
     <t xml:space="preserve">Identifier {http://hl7.dk/fhir/core/StructureDefinition/dk-core-d-ecpr-identifier}
 </t>
+  </si>
+  <si>
+    <t>[DA] D-eCPR, decentral eCPR</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -581,9 +650,6 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -634,38 +700,12 @@
     <t>Patient.name.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.name:official.extension</t>
   </si>
   <si>
     <t>Patient.name.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Patient.name:official.use</t>
   </si>
   <si>
@@ -682,9 +722,6 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The use of a human name.</t>
@@ -862,7 +899,7 @@
 </t>
   </si>
   <si>
-    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
+    <t>A contact detail for the individual</t>
   </si>
   <si>
     <t>Shall contain value, system and use if these information are known.</t>
@@ -874,14 +911,13 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>XTN</t>
+    <t>telecom</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
     <t>Patient.gender</t>
@@ -952,10 +988,10 @@
 dateTime</t>
   </si>
   <si>
-    <t>Shall only be sent if the patient is deceased or the status change from deceased to non-deceased</t>
-  </si>
-  <si>
-    <t>Shall contain information if the patient is deceased and it is relevant in the given context</t>
+    <t>Indicates if the individual is deceased or not</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not.</t>
   </si>
   <si>
     <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.</t>
@@ -1034,6 +1070,22 @@
   </si>
   <si>
     <t>Identifier holding the official organization identifier for a danish region</t>
+  </si>
+  <si>
+    <t>Patient.address.extension:address-official</t>
+  </si>
+  <si>
+    <t>address-official</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {address-official|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Indicate that this address is meant to be the 'official' address for that person. This can be indicated by setting the boolean to 'true' or adding a code for the country, e.g. 'DK'. In Denmark the official is the address registered in the CPR-register, see: https://www.retsinformation.dk/eli/lta/2023/1010.</t>
+  </si>
+  <si>
+    <t>This extension allows to specify if this address is or it is not the official address, or to indicate that this is the official address for that country (true assumed).  Note: It does not make sense to repeat this extension without the valueCodeableConcept to specify jurisdictions.</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -1425,7 +1477,7 @@
     <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
   </si>
   <si>
-    <t>http://hl7.dk/fhir/core/ValueSet/dk-core-RelatedPersonRelationshipTypes</t>
+    <t>http://hl7.dk/fhir/core/ValueSet/extended-patient-contactrelationship</t>
   </si>
   <si>
     <t>code</t>
@@ -1465,9 +1517,6 @@
     <t>Contact may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification.</t>
   </si>
   <si>
-    <t>telecom</t>
-  </si>
-  <si>
     <t>NK1-5, NK1-6, NK1-40</t>
   </si>
   <si>
@@ -1621,7 +1670,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.dk/fhir/core/StructureDefinition/dk-core-organization|http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner|http://hl7.dk/fhir/core/StructureDefinition/dk-core-practitioner-role)
 </t>
   </si>
   <si>
@@ -1652,6 +1701,10 @@
     <t>referencedSORUnit</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+</t>
+  </si>
+  <si>
     <t>[DA] Praktiserende læges SOR-id på sundhedsinstistutionsniveau</t>
   </si>
   <si>
@@ -1722,6 +1775,12 @@
   <si>
     <t xml:space="preserve">Identifier {http://hl7.dk/fhir/core/StructureDefinition/dk-core-sor-identifier}
 </t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
   </si>
   <si>
     <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
@@ -1731,6 +1790,9 @@
   </si>
   <si>
     <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
   </si>
   <si>
     <t>Patient.generalPractitioner:referencedSORUnit.display</t>
@@ -2151,7 +2213,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2160,17 +2222,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.12109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.36328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="125.5234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="160.7265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2179,27 +2241,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.75390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.55859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.67578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.30859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.08203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="153.5546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.75390625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="35.6015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2461,7 +2523,7 @@
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>80</v>
@@ -2927,7 +2989,7 @@
         <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>80</v>
@@ -3034,14 +3096,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>80</v>
@@ -3053,17 +3115,15 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>80</v>
@@ -3112,13 +3172,13 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>80</v>
@@ -3127,7 +3187,7 @@
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>80</v>
@@ -3144,14 +3204,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3170,16 +3230,16 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3217,19 +3277,19 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3241,10 +3301,10 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -3261,46 +3321,42 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>143</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3324,13 +3380,13 @@
         <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>80</v>
@@ -3348,22 +3404,22 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -3380,10 +3436,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3394,7 +3450,7 @@
         <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>89</v>
@@ -3403,21 +3459,21 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3453,41 +3509,43 @@
         <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>80</v>
@@ -3498,29 +3556,27 @@
         <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>158</v>
@@ -3531,10 +3587,10 @@
       <c r="M12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3582,7 +3638,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3591,13 +3647,13 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
@@ -3606,7 +3662,7 @@
         <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
@@ -3614,46 +3670,44 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3701,7 +3755,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3710,13 +3764,13 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
@@ -3725,7 +3779,7 @@
         <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3733,45 +3787,45 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O14" t="s" s="2">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3820,7 +3874,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3829,13 +3883,13 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
@@ -3844,7 +3898,7 @@
         <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -3863,16 +3917,16 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>89</v>
@@ -3886,59 +3940,53 @@
       <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="O15" t="s" s="2">
+      <c r="P15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="P15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>171</v>
@@ -3947,7 +3995,7 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
@@ -3956,16 +4004,16 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3976,18 +4024,20 @@
         <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>89</v>
@@ -3999,19 +4049,17 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4048,17 +4096,19 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4073,16 +4123,16 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -4090,20 +4140,20 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4118,19 +4168,17 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4179,7 +4227,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4194,16 +4242,16 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -4211,12 +4259,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4228,25 +4278,27 @@
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4294,31 +4346,31 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN18" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -4326,48 +4378,52 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="R19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4399,40 +4455,40 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4443,10 +4499,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4457,38 +4513,38 @@
         <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>80</v>
@@ -4506,37 +4562,35 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4545,16 +4599,16 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4562,24 +4616,26 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
@@ -4588,19 +4644,19 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4649,13 +4705,13 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -4664,16 +4720,16 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4681,43 +4737,41 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4766,7 +4820,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4778,10 +4832,10 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -4790,7 +4844,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4798,14 +4852,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4815,25 +4869,25 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4871,19 +4925,19 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4895,10 +4949,10 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -4907,7 +4961,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4915,10 +4969,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4926,37 +4980,41 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>80</v>
@@ -4974,13 +5032,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4998,13 +5056,13 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -5013,7 +5071,7 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -5022,7 +5080,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5030,10 +5088,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5044,7 +5102,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -5056,16 +5114,20 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5113,13 +5175,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -5128,7 +5190,7 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -5137,7 +5199,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5145,24 +5207,24 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
@@ -5171,18 +5233,18 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5230,7 +5292,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5245,7 +5307,7 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -5254,7 +5316,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5262,14 +5324,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5285,23 +5347,21 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5349,7 +5409,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5358,13 +5418,13 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>274</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5373,7 +5433,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5381,10 +5441,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5395,7 +5455,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5407,20 +5467,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5444,13 +5500,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5468,13 +5524,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5483,16 +5539,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5500,10 +5556,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5514,7 +5570,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5526,20 +5582,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>288</v>
+        <v>125</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5587,13 +5639,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5602,27 +5654,27 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5636,28 +5688,26 @@
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5706,7 +5756,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5721,16 +5771,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5738,10 +5788,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5764,19 +5814,19 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5825,7 +5875,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5840,16 +5890,16 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5857,10 +5907,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5880,19 +5930,23 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5916,13 +5970,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5940,7 +5994,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5952,19 +6006,19 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5972,21 +6026,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5995,21 +6049,23 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>135</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6045,58 +6101,56 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6111,22 +6165,26 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6174,31 +6232,31 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6206,14 +6264,12 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6222,28 +6278,32 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6291,7 +6351,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6303,19 +6363,19 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6343,26 +6403,22 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6374,7 +6430,7 @@
         <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>80</v>
@@ -6386,13 +6442,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6410,7 +6466,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>128</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6422,10 +6478,10 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6434,7 +6490,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6442,21 +6498,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6465,19 +6521,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>339</v>
+        <v>135</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6491,7 +6547,7 @@
         <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>80</v>
@@ -6503,46 +6559,46 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>343</v>
+        <v>139</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6551,7 +6607,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6559,12 +6615,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6582,23 +6640,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6610,7 +6664,7 @@
         <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>80</v>
@@ -6646,22 +6700,22 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>139</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6670,7 +6724,7 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6678,12 +6732,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6692,25 +6748,25 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>196</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6725,7 +6781,7 @@
         <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>80</v>
@@ -6761,7 +6817,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>139</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6773,10 +6829,10 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6785,7 +6841,7 @@
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6793,14 +6849,16 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="D40" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6810,22 +6868,22 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6840,7 +6898,7 @@
         <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>80</v>
@@ -6876,22 +6934,22 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>139</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -6900,7 +6958,7 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6908,14 +6966,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6928,24 +6986,26 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6957,7 +7017,7 @@
         <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>80</v>
@@ -6969,13 +7029,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6993,7 +7053,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7008,7 +7068,7 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>374</v>
+        <v>228</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -7017,7 +7077,7 @@
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7025,14 +7085,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7051,15 +7111,17 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7072,7 +7134,7 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>80</v>
@@ -7084,13 +7146,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7108,7 +7170,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7123,7 +7185,7 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>381</v>
+        <v>228</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -7132,7 +7194,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7140,14 +7202,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7157,7 +7219,7 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -7166,16 +7228,20 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7187,7 +7253,7 @@
         <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>80</v>
@@ -7223,7 +7289,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7238,7 +7304,7 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>389</v>
+        <v>237</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -7247,7 +7313,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7255,10 +7321,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7269,10 +7335,10 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7281,17 +7347,15 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7304,7 +7368,7 @@
         <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>80</v>
@@ -7340,13 +7404,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7355,7 +7419,7 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -7364,7 +7428,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7372,14 +7436,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7389,7 +7453,7 @@
         <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7398,18 +7462,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7421,7 +7483,7 @@
         <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>80</v>
@@ -7457,7 +7519,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7472,7 +7534,7 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>266</v>
+        <v>382</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -7481,7 +7543,7 @@
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7489,14 +7551,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7512,21 +7574,21 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>406</v>
+        <v>125</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7538,7 +7600,7 @@
         <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>80</v>
@@ -7550,11 +7612,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7572,7 +7636,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7587,16 +7651,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7604,14 +7668,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7627,23 +7691,19 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>416</v>
+        <v>125</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7691,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7706,16 +7766,16 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7723,46 +7783,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>424</v>
+        <v>125</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7774,7 +7830,7 @@
         <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>80</v>
@@ -7810,13 +7866,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7825,16 +7881,16 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7842,10 +7898,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7856,7 +7912,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7865,23 +7921,21 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>432</v>
+        <v>125</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7929,31 +7983,31 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>437</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7961,10 +8015,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7984,19 +8038,21 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>197</v>
+        <v>416</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>198</v>
+        <v>417</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8008,7 +8064,7 @@
         <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>80</v>
@@ -8044,7 +8100,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>199</v>
+        <v>420</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8056,10 +8112,10 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -8068,7 +8124,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8076,21 +8132,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -8102,18 +8158,18 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>423</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>135</v>
+        <v>424</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8137,13 +8193,11 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8161,31 +8215,31 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>205</v>
+        <v>422</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>179</v>
+        <v>429</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8193,45 +8247,45 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>433</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>137</v>
+        <v>436</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>143</v>
+        <v>437</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8280,31 +8334,31 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8312,10 +8366,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8338,17 +8392,19 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8373,11 +8429,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8395,7 +8453,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8410,16 +8468,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8427,10 +8485,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8441,7 +8499,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8453,17 +8511,19 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8512,31 +8572,31 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>188</v>
+        <v>455</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8544,10 +8604,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8558,7 +8618,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8570,20 +8630,16 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>459</v>
+        <v>125</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>460</v>
+        <v>126</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8631,31 +8687,31 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>458</v>
+        <v>128</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>463</v>
+        <v>129</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8663,21 +8719,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8689,18 +8745,18 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>306</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>466</v>
+        <v>133</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8748,31 +8804,31 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>465</v>
+        <v>139</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8780,43 +8836,45 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>278</v>
+        <v>460</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>472</v>
+        <v>169</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8841,13 +8899,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8865,31 +8923,31 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8897,10 +8955,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8911,7 +8969,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8923,17 +8981,17 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8958,13 +9016,11 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8982,31 +9038,31 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9014,10 +9070,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9040,16 +9096,18 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9097,7 +9155,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9112,16 +9170,16 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>485</v>
+        <v>209</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9129,10 +9187,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9155,19 +9213,19 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>490</v>
+        <v>285</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9216,7 +9274,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9231,16 +9289,16 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>491</v>
+        <v>286</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>492</v>
+        <v>129</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -9248,10 +9306,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9274,16 +9332,18 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>197</v>
+        <v>482</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>198</v>
+        <v>483</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9331,7 +9391,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>199</v>
+        <v>481</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9343,19 +9403,19 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9363,21 +9423,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9389,18 +9449,18 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9424,13 +9484,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9448,31 +9508,31 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>205</v>
+        <v>486</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9480,45 +9540,43 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>491</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>143</v>
+        <v>494</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9567,31 +9625,31 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>131</v>
+        <v>496</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9599,10 +9657,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9610,7 +9668,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -9625,20 +9683,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>406</v>
+        <v>273</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O64" t="s" s="2">
         <v>500</v>
       </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9662,13 +9716,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9686,10 +9740,10 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>88</v>
@@ -9704,13 +9758,13 @@
         <v>501</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>502</v>
+        <v>129</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9718,10 +9772,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9732,7 +9786,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9744,19 +9798,19 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>172</v>
+        <v>449</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9805,13 +9859,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9820,16 +9874,16 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9837,21 +9891,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9863,17 +9917,15 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>514</v>
+        <v>125</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>515</v>
+        <v>126</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9910,41 +9962,43 @@
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>519</v>
+        <v>129</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -9952,16 +10006,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>513</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9980,16 +10032,16 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>514</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>523</v>
+        <v>133</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>516</v>
+        <v>134</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>517</v>
+        <v>135</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10039,7 +10091,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>512</v>
+        <v>139</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10051,19 +10103,19 @@
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>519</v>
+        <v>129</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10071,42 +10123,46 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>197</v>
+        <v>460</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10154,22 +10210,22 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>199</v>
+        <v>462</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -10186,21 +10242,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10212,18 +10268,20 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>423</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>135</v>
+        <v>513</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>202</v>
+        <v>514</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10247,55 +10305,55 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>205</v>
+        <v>512</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>179</v>
+        <v>517</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10303,10 +10361,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10326,21 +10384,23 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10388,7 +10448,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10397,22 +10457,22 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>131</v>
+        <v>525</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10420,21 +10480,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10443,19 +10503,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>102</v>
+        <v>530</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10481,37 +10541,35 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
@@ -10520,16 +10578,16 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>131</v>
+        <v>535</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10537,21 +10595,23 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10563,16 +10623,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>167</v>
+        <v>540</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>160</v>
+        <v>532</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10622,31 +10682,31 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>162</v>
+        <v>535</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>163</v>
+        <v>536</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10654,10 +10714,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10677,20 +10737,18 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>550</v>
+        <v>126</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10739,7 +10797,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>553</v>
+        <v>128</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10751,10 +10809,10 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10771,21 +10829,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10794,23 +10852,21 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>555</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>556</v>
+        <v>133</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>557</v>
+        <v>134</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10846,37 +10902,37 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>554</v>
+        <v>139</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10890,10 +10946,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10904,32 +10960,30 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>432</v>
+        <v>125</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10977,25 +11031,25 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>566</v>
+        <v>148</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -11009,10 +11063,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11032,18 +11086,20 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>197</v>
+        <v>554</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11068,13 +11124,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -11092,7 +11148,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>199</v>
+        <v>559</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11104,10 +11160,10 @@
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -11124,21 +11180,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11147,19 +11203,19 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>562</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>135</v>
+        <v>563</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>202</v>
+        <v>564</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>137</v>
+        <v>565</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11209,22 +11265,22 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>205</v>
+        <v>566</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>179</v>
+        <v>567</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -11241,46 +11297,44 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>569</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>443</v>
+        <v>570</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11328,22 +11382,22 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
@@ -11360,10 +11414,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11371,7 +11425,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>88</v>
@@ -11386,18 +11440,20 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11445,10 +11501,10 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>88</v>
@@ -11460,16 +11516,16 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>152</v>
+        <v>496</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>179</v>
+        <v>580</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11477,10 +11533,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11488,31 +11544,35 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>108</v>
+        <v>449</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11536,13 +11596,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>578</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>579</v>
+        <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11560,13 +11620,13 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
@@ -11575,10 +11635,10 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11587,11 +11647,594 @@
         <v>80</v>
       </c>
       <c r="AO80" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO80">
+  <autoFilter ref="A1:AO85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11601,7 +12244,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/core/StructureDefinition-medcom-core-patient.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/core/StructureDefinition-medcom-core-patient.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$109</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4083" uniqueCount="682">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T07:28:01+00:00</t>
+    <t>2026-01-13T14:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -596,6 +596,208 @@
     <t>Unique identification number for all citizens in Denmark, called civil person register (CPR-number).</t>
   </si>
   <si>
+    <t>Patient.identifier:cpr.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:cpr.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:cpr.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier:cpr.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier:cpr.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.1.2</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier:cpr.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpr:Requirement of danish civil registration numbers. See https://cpr.dk/cpr-systemet/opbygning-af-cpr-nummeret/#:~:text=5%20%2D%206%20position%20angiver%20personens,i%20personnummeret%20angiver%20personens%20k%C3%B8n. {matches('^((((0[1-9]|1[0-9]|2[0-9]|3[0-1])(01|03|05|07|08|10|12))|((0[1-9]|1[0-9]|2[0-9]|30)(04|06|09|11))|((0[1-9]|1[0-9]|2[0-9])(02)))[0-9]{6})$')}</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier:cpr.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier:cpr.assigner</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
     <t>Patient.identifier:x-ecpr</t>
   </si>
   <si>
@@ -609,6 +811,40 @@
     <t>[DA] X-eCPR, tildelt fra den nationale eCPR service</t>
   </si>
   <si>
+    <t>Patient.identifier:x-ecpr.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:x-ecpr.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:x-ecpr.use</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>Patient.identifier:x-ecpr.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:x-ecpr.system</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.1.6.1.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier:x-ecpr.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+x-ecpr:Requirement of danish X-eCPR. See https://www.nspop.dk/pages/viewpage.action?pageId=226757583#eCPRFormater(XeCPRogDeCPR)-Formatetfornationaleerstatningspersonnumre-X-eCPR {value.matches('^((((0[1-9]|1[0-9]|2[0-9]|3[0-1])(01|03|05|07|08|10|12))|((0[1-9]|1[0-9]|2[0-9]|30)(04|06|09|11))|((0[1-9]|1[0-9]|2[0-9])(02)))([0-9]{2})((1|7){1})([A-Z]{2})([0-9]{1}))$')}</t>
+  </si>
+  <si>
+    <t>Patient.identifier:x-ecpr.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:x-ecpr.assigner</t>
+  </si>
+  <si>
     <t>Patient.identifier:d-ecpr</t>
   </si>
   <si>
@@ -620,6 +856,37 @@
   </si>
   <si>
     <t>[DA] D-eCPR, decentral eCPR</t>
+  </si>
+  <si>
+    <t>Patient.identifier:d-ecpr.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:d-ecpr.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:d-ecpr.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:d-ecpr.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:d-ecpr.system</t>
+  </si>
+  <si>
+    <t>http://hl7.dk/fhir/core/ValueSet/DkCoreDeCPRValueSet</t>
+  </si>
+  <si>
+    <t>Patient.identifier:d-ecpr.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+d-ecpr:Requirement of danish D-eCPR. See https://www.nspop.dk/pages/viewpage.action?pageId=226757583#eCPRFormater(XeCPRogDeCPR)-Formatetfordecentraleerstatningspersonnumre-D-eCPR {value.matches('^((((0[1-9]|1[0-9]|2[0-9]|3[0-1])(01|03|05|07|08|10|12))|((0[1-9]|1[0-9]|2[0-9]|30)(04|06|09|11))|((0[1-9]|1[0-9]|2[0-9])(02)))([0-9]{2})((0|5|6){1})([A-Z]{2})([0-9]{1}))$')}</t>
+  </si>
+  <si>
+    <t>Patient.identifier:d-ecpr.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:d-ecpr.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -688,9 +955,6 @@
     <t>Patient.name:official</t>
   </si>
   <si>
-    <t>official</t>
-  </si>
-  <si>
     <t>[DA] Officielt navn, som det fremgår af CPR registeret</t>
   </si>
   <si>
@@ -870,10 +1134,6 @@
     <t>Patient.name.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period when name was/is in use</t>
   </si>
   <si>
@@ -895,7 +1155,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-messaging-contactpoint}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1078,7 +1338,7 @@
     <t>address-official</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {address-official|5.2.0}
+    <t xml:space="preserve">Extension {address-official|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1335,10 +1595,6 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -1346,9 +1602,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://hl7.dk/fhir/core/ValueSet/dk-marital-status</t>
@@ -1504,10 +1757,6 @@
     <t>Patient.contact.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
     <t>A contact detail for the person</t>
   </si>
   <si>
@@ -1548,10 +1797,6 @@
   </si>
   <si>
     <t>Patient.contact.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization that is associated with the contact</t>
@@ -1701,7 +1946,7 @@
     <t>referencedSORUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1761,7 +2006,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -2213,7 +2458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AO109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2246,7 +2491,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="55.08203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.953125" customWidth="true" bestFit="true"/>
@@ -2517,7 +2762,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>88</v>
@@ -2983,7 +3228,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>88</v>
@@ -4143,11 +4388,9 @@
         <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C17" t="s" s="2">
         <v>186</v>
       </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
@@ -4159,27 +4402,25 @@
         <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -4227,31 +4468,31 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -4259,46 +4500,44 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4334,19 +4573,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4358,19 +4597,19 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -4378,10 +4617,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4404,70 +4643,68 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="P19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="S19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="O19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="P19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4482,16 +4719,16 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4499,10 +4736,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4510,13 +4747,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4525,19 +4762,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4562,35 +4799,37 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4599,10 +4838,10 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4619,11 +4858,9 @@
         <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C21" t="s" s="2">
         <v>213</v>
       </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4644,32 +4881,32 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>80</v>
@@ -4705,13 +4942,13 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -4720,16 +4957,16 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4737,10 +4974,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4748,30 +4985,32 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>125</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4784,7 +5023,7 @@
         <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>80</v>
@@ -4793,7 +5032,7 @@
         <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="X22" t="s" s="2">
         <v>80</v>
@@ -4820,7 +5059,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4832,10 +5071,10 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -4844,7 +5083,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4852,21 +5091,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4875,20 +5114,18 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4925,34 +5162,34 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -4961,7 +5198,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4969,10 +5206,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4980,7 +5217,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -4989,32 +5226,30 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>80</v>
@@ -5032,13 +5267,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -5056,7 +5291,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5071,7 +5306,7 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -5080,7 +5315,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5088,12 +5323,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5105,7 +5342,7 @@
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
@@ -5114,19 +5351,17 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5175,13 +5410,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -5190,16 +5425,16 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5207,43 +5442,41 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5292,7 +5525,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5304,10 +5537,10 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -5316,7 +5549,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5324,14 +5557,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5341,25 +5574,25 @@
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5397,19 +5630,19 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5421,10 +5654,10 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5433,7 +5666,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5444,7 +5677,7 @@
         <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5455,34 +5688,38 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>80</v>
@@ -5500,13 +5737,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5524,13 +5761,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5539,7 +5776,7 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5548,7 +5785,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5556,10 +5793,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5570,7 +5807,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5582,16 +5819,20 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5615,13 +5856,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5639,13 +5880,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5654,7 +5895,7 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5663,7 +5904,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5671,10 +5912,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5682,13 +5923,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5697,30 +5938,32 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>80</v>
@@ -5756,7 +5999,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5771,7 +6014,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5780,7 +6023,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5788,10 +6031,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5799,10 +6042,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>89</v>
@@ -5814,20 +6057,18 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5839,7 +6080,7 @@
         <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>80</v>
@@ -5848,7 +6089,7 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="X31" t="s" s="2">
         <v>80</v>
@@ -5875,31 +6116,31 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5907,10 +6148,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5933,20 +6174,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5970,13 +6207,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5994,7 +6231,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6009,16 +6246,16 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6026,10 +6263,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6052,20 +6289,18 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6113,7 +6348,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6128,29 +6363,31 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6162,28 +6399,26 @@
         <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6232,13 +6467,13 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
@@ -6247,16 +6482,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>315</v>
+        <v>177</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6264,10 +6499,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6278,32 +6513,28 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>125</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>126</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6351,31 +6582,31 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6383,21 +6614,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6409,15 +6640,17 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6454,31 +6687,31 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>129</v>
@@ -6498,50 +6731,52 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>190</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>80</v>
@@ -6559,46 +6794,46 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6607,7 +6842,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6615,14 +6850,12 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6640,19 +6873,23 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>203</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6676,13 +6913,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6700,22 +6937,22 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6724,7 +6961,7 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6732,44 +6969,46 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6781,7 +7020,7 @@
         <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>80</v>
@@ -6793,13 +7032,11 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6817,22 +7054,22 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6841,7 +7078,7 @@
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6849,43 +7086,43 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>340</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6898,7 +7135,7 @@
         <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>80</v>
@@ -6907,7 +7144,7 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>80</v>
@@ -6934,22 +7171,22 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -6958,7 +7195,7 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6966,10 +7203,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6986,26 +7223,22 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -7017,7 +7250,7 @@
         <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>80</v>
@@ -7029,13 +7262,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7053,7 +7286,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>351</v>
+        <v>239</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7068,7 +7301,7 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -7077,7 +7310,7 @@
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>352</v>
+        <v>241</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7085,10 +7318,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7111,16 +7344,16 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>245</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>246</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>356</v>
+        <v>247</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7134,7 +7367,7 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>80</v>
@@ -7146,13 +7379,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7170,7 +7403,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7185,7 +7418,7 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -7194,7 +7427,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>361</v>
+        <v>250</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7202,10 +7435,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7222,30 +7455,32 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>283</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="R43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7253,7 +7488,7 @@
         <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>80</v>
@@ -7289,7 +7524,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7304,16 +7539,16 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7321,10 +7556,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7332,7 +7567,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7347,16 +7582,20 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>291</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7368,7 +7607,7 @@
         <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>80</v>
@@ -7392,19 +7631,17 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7419,16 +7656,16 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>374</v>
+        <v>296</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7436,18 +7673,20 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D45" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -7462,16 +7701,20 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7483,7 +7726,7 @@
         <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>80</v>
@@ -7519,13 +7762,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7534,16 +7777,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>382</v>
+        <v>296</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7551,14 +7794,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>302</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7574,20 +7817,18 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>125</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7600,7 +7841,7 @@
         <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>80</v>
@@ -7636,7 +7877,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>390</v>
+        <v>128</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7648,10 +7889,10 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>391</v>
+        <v>129</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7660,7 +7901,7 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7668,21 +7909,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>394</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7691,18 +7932,20 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7739,34 +7982,34 @@
         <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>397</v>
+        <v>139</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>398</v>
+        <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7775,7 +8018,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7783,18 +8026,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>400</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>88</v>
@@ -7803,34 +8046,38 @@
         <v>89</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>80</v>
@@ -7842,13 +8089,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7866,7 +8113,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7881,7 +8128,7 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -7890,7 +8137,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7898,10 +8145,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7927,15 +8174,17 @@
         <v>125</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>318</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7983,7 +8232,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7998,7 +8247,7 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>413</v>
+        <v>323</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -8007,7 +8256,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8015,24 +8264,24 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -8041,18 +8290,18 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8064,7 +8313,7 @@
         <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>80</v>
@@ -8100,7 +8349,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>420</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8115,7 +8364,7 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -8124,7 +8373,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>421</v>
+        <v>333</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8132,44 +8381,44 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>422</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8193,11 +8442,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8215,13 +8466,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -8230,16 +8481,16 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>431</v>
+        <v>342</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8247,10 +8498,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>432</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8261,7 +8512,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8270,23 +8521,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>433</v>
+        <v>125</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>434</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8334,13 +8581,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -8349,16 +8596,16 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>439</v>
+        <v>349</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8366,10 +8613,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>440</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8389,23 +8636,19 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>441</v>
+        <v>125</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>442</v>
+        <v>352</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8453,7 +8696,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>440</v>
+        <v>354</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8468,16 +8711,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8485,10 +8728,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>448</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>448</v>
+        <v>358</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8499,7 +8742,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8508,22 +8751,20 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>449</v>
+        <v>236</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>450</v>
+        <v>359</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>453</v>
+        <v>361</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8572,31 +8813,31 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>448</v>
+        <v>362</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>455</v>
+        <v>363</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8604,10 +8845,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>456</v>
+        <v>365</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8618,7 +8859,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8627,19 +8868,23 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>125</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>126</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8687,31 +8932,31 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>128</v>
+        <v>365</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8719,21 +8964,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>457</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>457</v>
+        <v>374</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8742,21 +8987,23 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>133</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>134</v>
+        <v>376</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8780,13 +9027,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8804,31 +9051,31 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8836,45 +9083,45 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>385</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>169</v>
+        <v>389</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8923,42 +9170,42 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>462</v>
+        <v>384</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>148</v>
+        <v>390</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8969,29 +9216,31 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>464</v>
+        <v>396</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9016,11 +9265,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -9038,13 +9289,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -9053,7 +9304,7 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>129</v>
@@ -9062,7 +9313,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>469</v>
+        <v>401</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9070,10 +9321,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>402</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>470</v>
+        <v>402</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9084,7 +9335,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9093,20 +9344,22 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>203</v>
+        <v>403</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>471</v>
+        <v>404</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>473</v>
+        <v>407</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9155,13 +9408,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>470</v>
+        <v>402</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -9170,16 +9423,16 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>209</v>
+        <v>408</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>129</v>
+        <v>409</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9187,10 +9440,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9201,7 +9454,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9213,20 +9466,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>476</v>
+        <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>477</v>
+        <v>126</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9274,31 +9523,31 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>475</v>
+        <v>128</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>286</v>
+        <v>129</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -9306,21 +9555,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>481</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>481</v>
+        <v>412</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9332,18 +9581,18 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>482</v>
+        <v>133</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9379,43 +9628,43 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>481</v>
+        <v>139</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9423,12 +9672,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>486</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9449,18 +9700,16 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>108</v>
+        <v>415</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>290</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>488</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9484,13 +9733,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9508,31 +9757,31 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>486</v>
+        <v>139</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>489</v>
+        <v>80</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9540,12 +9789,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>490</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9566,18 +9817,16 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>491</v>
+        <v>420</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>493</v>
+        <v>422</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>494</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9625,31 +9874,31 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9657,12 +9906,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>498</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9683,13 +9934,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>273</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>499</v>
+        <v>426</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9740,25 +9991,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>498</v>
+        <v>139</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9772,10 +10023,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9786,31 +10037,31 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>503</v>
+        <v>429</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9823,7 +10074,7 @@
         <v>80</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>80</v>
@@ -9835,13 +10086,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9859,13 +10110,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9874,16 +10125,16 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>507</v>
+        <v>314</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9891,10 +10142,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>509</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>509</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9914,18 +10165,20 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>126</v>
+        <v>439</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9938,7 +10191,7 @@
         <v>80</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>80</v>
@@ -9950,13 +10203,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9974,7 +10227,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>128</v>
+        <v>445</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9986,10 +10239,10 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>129</v>
+        <v>314</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -9998,7 +10251,7 @@
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10006,21 +10259,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10029,21 +10282,23 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>133</v>
+        <v>448</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>134</v>
+        <v>449</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10055,7 +10310,7 @@
         <v>80</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>80</v>
@@ -10091,22 +10346,22 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>139</v>
+        <v>452</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -10115,7 +10370,7 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10123,14 +10378,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10143,26 +10398,22 @@
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10174,7 +10425,7 @@
         <v>80</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>80</v>
@@ -10210,7 +10461,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10222,10 +10473,10 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>148</v>
+        <v>459</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -10234,7 +10485,7 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10242,18 +10493,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>88</v>
@@ -10265,23 +10516,19 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10293,7 +10540,7 @@
         <v>80</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>80</v>
@@ -10305,13 +10552,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10329,10 +10576,10 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>88</v>
@@ -10344,16 +10591,16 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>517</v>
+        <v>467</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10361,14 +10608,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10384,23 +10631,21 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10412,7 +10657,7 @@
         <v>80</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>80</v>
@@ -10448,7 +10693,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10463,16 +10708,16 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>527</v>
+        <v>477</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10480,21 +10725,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>528</v>
+        <v>478</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>528</v>
+        <v>478</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10503,20 +10748,18 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>530</v>
+        <v>125</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10553,23 +10796,25 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AC71" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
@@ -10578,16 +10823,16 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>535</v>
+        <v>483</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10595,23 +10840,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>537</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10620,20 +10863,18 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>539</v>
+        <v>125</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>540</v>
+        <v>487</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10646,7 +10887,7 @@
         <v>80</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>80</v>
@@ -10682,13 +10923,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -10697,16 +10938,16 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10714,10 +10955,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>541</v>
+        <v>493</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10737,18 +10978,20 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>125</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>126</v>
+        <v>494</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10797,7 +11040,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>128</v>
+        <v>497</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10809,10 +11052,10 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>129</v>
+        <v>498</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10821,7 +11064,7 @@
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10829,21 +11072,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10852,21 +11095,21 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>133</v>
+        <v>501</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10878,7 +11121,7 @@
         <v>80</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>80</v>
@@ -10902,34 +11145,34 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>139</v>
+        <v>505</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>129</v>
+        <v>363</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -10938,7 +11181,7 @@
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -10946,10 +11189,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10969,21 +11212,21 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11007,13 +11250,11 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11031,7 +11272,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11040,22 +11281,22 @@
         <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>551</v>
+        <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>148</v>
+        <v>512</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11063,10 +11304,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11086,21 +11327,23 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>102</v>
+        <v>516</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>554</v>
+        <v>517</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11124,13 +11367,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>427</v>
+        <v>80</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -11148,7 +11391,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11163,16 +11406,16 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>148</v>
+        <v>521</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11180,10 +11423,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>560</v>
+        <v>523</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11194,7 +11437,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11203,21 +11446,23 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11265,13 +11510,13 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
@@ -11280,16 +11525,16 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11297,10 +11542,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11311,7 +11556,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -11320,21 +11565,23 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>125</v>
+        <v>532</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11382,25 +11629,25 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>573</v>
+        <v>531</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>537</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>148</v>
+        <v>538</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11414,10 +11661,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11437,23 +11684,19 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>575</v>
+        <v>125</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>576</v>
+        <v>126</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11501,7 +11744,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>574</v>
+        <v>128</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11513,13 +11756,13 @@
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>496</v>
+        <v>129</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11533,14 +11776,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>581</v>
+        <v>540</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>581</v>
+        <v>540</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11553,26 +11796,24 @@
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>449</v>
+        <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>582</v>
+        <v>133</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>583</v>
+        <v>134</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11620,7 +11861,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>581</v>
+        <v>139</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11632,13 +11873,13 @@
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>586</v>
+        <v>129</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11652,42 +11893,46 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>587</v>
+        <v>541</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>587</v>
+        <v>541</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>126</v>
+        <v>543</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11735,22 +11980,22 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>128</v>
+        <v>545</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -11767,14 +12012,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>588</v>
+        <v>546</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>588</v>
+        <v>546</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11793,18 +12038,18 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>133</v>
+        <v>547</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11828,13 +12073,11 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11852,7 +12095,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>139</v>
+        <v>546</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11864,19 +12107,19 @@
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AL82" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>552</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11884,45 +12127,43 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>169</v>
+        <v>556</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -11971,31 +12212,31 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>462</v>
+        <v>553</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12003,10 +12244,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12014,10 +12255,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -12026,21 +12267,23 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>591</v>
+        <v>366</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12088,13 +12331,13 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
@@ -12103,7 +12346,7 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>177</v>
+        <v>371</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>129</v>
@@ -12112,7 +12355,7 @@
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12120,10 +12363,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12131,7 +12374,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>88</v>
@@ -12143,19 +12386,21 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>108</v>
+        <v>403</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12179,13 +12424,13 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>598</v>
+        <v>80</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>599</v>
+        <v>80</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -12203,10 +12448,10 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>88</v>
@@ -12218,7 +12463,7 @@
         <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>600</v>
+        <v>408</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>129</v>
@@ -12227,14 +12472,2826 @@
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>80</v>
+        <v>567</v>
       </c>
       <c r="AO85" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AC95" s="2"/>
+      <c r="AD95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO109" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO85">
+  <autoFilter ref="A1:AO109">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12244,7 +15301,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI108">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
